--- a/docs/extension-publisher-reference.xlsx
+++ b/docs/extension-publisher-reference.xlsx
@@ -238,7 +238,7 @@
     <t>Extension.valueReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}
+    <t xml:space="preserve">Reference {http://fhir.hl7.org/us/ecr/StructureDefinition/ecr-organization}
 </t>
   </si>
   <si>
